--- a/ApolloQA/Data/RatingManual/TX/CA00002.InspectionCount_OutOfServiceViolationRatioFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/TX/CA00002.InspectionCount_OutOfServiceViolationRatioFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CA00002.InspectionCount_OutOfServiceViolationRatioFactors" sheetId="1" r:id="R6775353668ec4b57"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CA00002.InspectionCount_OutOfServiceViolationRatioFactors" sheetId="1" r:id="Ra1e59ddfa2c8458f"/>
   </x:sheets>
 </x:workbook>
 </file>
